--- a/개발일정관리.xlsx
+++ b/개발일정관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA_SW\개발문서\personal_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CDBAC6-9907-42FD-9006-6DFF3A3B732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E0528-9326-44A2-837B-F16D639CA36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -216,6 +213,10 @@
   </si>
   <si>
     <t>상품 상세 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -368,6 +369,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,18 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +673,7 @@
   <dimension ref="A2:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -695,47 +696,47 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
@@ -744,10 +745,10 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -757,7 +758,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4">
         <v>44749</v>
@@ -766,7 +767,7 @@
         <v>44749</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -774,8 +775,8 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -783,12 +784,16 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44750</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44750</v>
+      </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -809,12 +814,16 @@
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44750</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44750</v>
+      </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -831,12 +840,16 @@
         <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44750</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44750</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -853,12 +866,16 @@
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44750</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44750</v>
+      </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -875,12 +892,16 @@
         <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44750</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44750</v>
+      </c>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -897,12 +918,16 @@
         <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44750</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44750</v>
+      </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -919,12 +944,16 @@
         <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44750</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44750</v>
+      </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -932,10 +961,10 @@
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -945,12 +974,12 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -958,8 +987,8 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -967,12 +996,12 @@
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -980,8 +1009,8 @@
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -989,12 +1018,12 @@
         <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -1002,8 +1031,8 @@
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1011,12 +1040,12 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -1024,8 +1053,8 @@
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1033,12 +1062,12 @@
         <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="3"/>
     </row>
@@ -1046,8 +1075,8 @@
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1055,12 +1084,12 @@
         <v>23</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -1069,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>24</v>
@@ -1078,15 +1107,15 @@
         <v>12</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -1101,12 +1130,12 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="3"/>
     </row>
@@ -1121,12 +1150,12 @@
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -1141,12 +1170,12 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -1161,12 +1190,12 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -1183,12 +1212,12 @@
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="I24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -1203,12 +1232,12 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -1223,12 +1252,12 @@
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -1243,12 +1272,12 @@
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -1263,12 +1292,12 @@
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="3"/>
     </row>
@@ -1277,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>24</v>
@@ -1286,15 +1315,15 @@
         <v>12</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -1309,12 +1338,12 @@
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
       <c r="I30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30" s="3"/>
     </row>
@@ -1329,12 +1358,12 @@
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31" s="3"/>
     </row>
@@ -1349,12 +1378,12 @@
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J32" s="3"/>
     </row>
@@ -1369,12 +1398,12 @@
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33" s="3"/>
     </row>
@@ -1391,12 +1420,12 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J34" s="3"/>
     </row>
@@ -1411,12 +1440,12 @@
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" s="3"/>
     </row>
@@ -1431,12 +1460,12 @@
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J36" s="3"/>
     </row>
@@ -1451,12 +1480,12 @@
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J37" s="3"/>
     </row>
@@ -1471,12 +1500,12 @@
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J38" s="3"/>
     </row>
@@ -1485,7 +1514,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>24</v>
@@ -1494,15 +1523,15 @@
         <v>12</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
       <c r="I39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J39" s="3"/>
     </row>
@@ -1517,12 +1546,12 @@
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J40" s="3"/>
     </row>
@@ -1537,12 +1566,12 @@
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
       <c r="I41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" s="3"/>
     </row>
@@ -1557,12 +1586,12 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="3"/>
       <c r="I42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J42" s="3"/>
     </row>
@@ -1577,12 +1606,12 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
       <c r="I43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" s="3"/>
     </row>
@@ -1599,12 +1628,12 @@
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="3"/>
       <c r="I44" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J44" s="3"/>
     </row>
@@ -1619,12 +1648,12 @@
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J45" s="3"/>
     </row>
@@ -1639,12 +1668,12 @@
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J46" s="3"/>
     </row>
@@ -1659,12 +1688,12 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J47" s="3"/>
     </row>
@@ -1679,12 +1708,12 @@
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J48" s="3"/>
     </row>
@@ -1693,7 +1722,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>24</v>
@@ -1701,16 +1730,16 @@
       <c r="D49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>45</v>
+      <c r="E49" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
       <c r="I49" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J49" s="3"/>
     </row>
@@ -1725,12 +1754,12 @@
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="3"/>
       <c r="I50" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J50" s="3"/>
     </row>
@@ -1745,12 +1774,12 @@
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
       <c r="I51" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J51" s="3"/>
     </row>
@@ -1765,12 +1794,12 @@
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
       <c r="I52" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J52" s="3"/>
     </row>
@@ -1785,12 +1814,12 @@
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
       <c r="I53" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J53" s="3"/>
     </row>
@@ -1807,12 +1836,12 @@
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J54" s="3"/>
     </row>
@@ -1827,12 +1856,12 @@
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J55" s="3"/>
     </row>
@@ -1847,12 +1876,12 @@
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J56" s="3"/>
     </row>
@@ -1867,12 +1896,12 @@
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J57" s="3"/>
     </row>
@@ -1887,17 +1916,39 @@
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J58" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="E39:E48"/>
@@ -1906,28 +1957,6 @@
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="E49:E58"/>
     <mergeCell ref="C54:C58"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="E19:E28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/개발일정관리.xlsx
+++ b/개발일정관리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA_SW\개발문서\personal_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E0528-9326-44A2-837B-F16D639CA36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B21456-614F-4735-9FC4-D752001034B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,26 +369,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -696,47 +696,47 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
@@ -745,10 +745,10 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -775,8 +775,8 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -921,10 +921,10 @@
         <v>42</v>
       </c>
       <c r="G11" s="4">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="H11" s="4">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>47</v>
@@ -947,10 +947,10 @@
         <v>42</v>
       </c>
       <c r="G12" s="4">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="H12" s="4">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>47</v>
@@ -961,10 +961,10 @@
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -976,10 +976,14 @@
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>44753</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44753</v>
+      </c>
       <c r="I13" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -987,8 +991,8 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1013,8 @@
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1031,8 +1035,8 @@
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1053,8 +1057,8 @@
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1075,8 +1079,8 @@
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1734,7 @@
       <c r="D49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1927,28 +1931,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="E39:E48"/>
@@ -1957,6 +1939,28 @@
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="E49:E58"/>
     <mergeCell ref="C54:C58"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E19:E28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
